--- a/data/Instances/InstancesS/outputS-2.xlsx
+++ b/data/Instances/InstancesS/outputS-2.xlsx
@@ -438,44 +438,44 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9</t>
@@ -498,12 +498,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -513,77 +513,77 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -603,24 +603,24 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>47</t>
@@ -633,7 +633,7 @@
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -648,49 +648,49 @@
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -707,9 +707,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -727,9 +725,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
@@ -745,15 +741,13 @@
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -765,32 +759,32 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
@@ -805,35 +799,23 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -849,19 +831,15 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -875,144 +853,98 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
         <v>1</v>
       </c>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AF5" t="n">
+        <v>1</v>
+      </c>
       <c r="AG5" t="n">
         <v>1</v>
       </c>
-      <c r="AH5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1029,11 +961,11 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1053,7 +985,9 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1071,7 +1005,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1088,11 +1022,11 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -1108,9 +1042,7 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
@@ -1134,75 +1066,47 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1</v>
-      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
         <v>1</v>
       </c>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
@@ -1211,33 +1115,21 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -1248,17 +1140,13 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
@@ -1276,9 +1164,7 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
@@ -1303,9 +1189,7 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -1322,18 +1206,12 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="n">
-        <v>1</v>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1352,21 +1230,15 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1374,34 +1246,26 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
         <v>1</v>
       </c>
@@ -1411,67 +1275,63 @@
       <c r="R11" t="n">
         <v>1</v>
       </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1</v>
-      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
         <v>1</v>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
         <v>1</v>
       </c>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
       <c r="AF11" t="n">
         <v>1</v>
       </c>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AK11" t="n">
+        <v>1</v>
+      </c>
       <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="AM11" t="n">
+        <v>1</v>
+      </c>
       <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
+      <c r="AR11" t="n">
+        <v>1</v>
+      </c>
       <c r="AS11" t="n">
         <v>1</v>
       </c>
-      <c r="AT11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="n">
         <v>1</v>
       </c>
-      <c r="AW11" t="inlineStr"/>
+      <c r="AW11" t="n">
+        <v>1</v>
+      </c>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="n">
         <v>1</v>
@@ -1490,7 +1350,9 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
@@ -1498,10 +1360,10 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1513,13 +1375,19 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
@@ -1527,7 +1395,9 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
+      <c r="AP12" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -1535,9 +1405,7 @@
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1548,61 +1416,101 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1</v>
+      </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AK13" t="n">
+        <v>1</v>
+      </c>
       <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
+      <c r="AR13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
+      <c r="AV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1</v>
+      </c>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1618,12 +1526,14 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1643,7 +1553,9 @@
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>1</v>
+      </c>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
@@ -1661,17 +1573,25 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1682,44 +1602,82 @@
         <v>1</v>
       </c>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1</v>
+      </c>
       <c r="AH15" t="n">
         <v>1</v>
       </c>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AI15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1</v>
+      </c>
       <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1</v>
+      </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY15" t="inlineStr"/>
+      <c r="AV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1727,24 +1685,30 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1755,12 +1719,16 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
+      <c r="AG16" t="n">
+        <v>1</v>
+      </c>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
@@ -1783,63 +1751,87 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
       <c r="X17" t="n">
         <v>1</v>
       </c>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+      <c r="AB17" t="n">
+        <v>1</v>
+      </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
       <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="n">
         <v>1</v>
       </c>
@@ -1848,8 +1840,12 @@
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
+      <c r="AV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1</v>
+      </c>
       <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="n">
         <v>1</v>
@@ -1858,7 +1854,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1874,10 +1870,10 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1917,7 +1913,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1927,16 +1923,16 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -1948,13 +1944,17 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
+      <c r="AB19" t="n">
+        <v>1</v>
+      </c>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
+      <c r="AH19" t="n">
+        <v>1</v>
+      </c>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
@@ -1970,15 +1970,13 @@
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1990,7 +1988,9 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1998,25 +1998,31 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="n">
-        <v>1</v>
-      </c>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
+      <c r="AB20" t="n">
+        <v>1</v>
+      </c>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1</v>
+      </c>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
@@ -2026,152 +2032,110 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="n">
-        <v>1</v>
-      </c>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="n">
-        <v>1</v>
-      </c>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="n">
         <v>1</v>
       </c>
       <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="n">
         <v>1</v>
       </c>
-      <c r="AH21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -2180,46 +2144,80 @@
       <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
+      <c r="AB22" t="n">
+        <v>1</v>
+      </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
+      <c r="AE22" t="n">
+        <v>1</v>
+      </c>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
+      <c r="AP22" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
+      <c r="AR22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="inlineStr"/>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1</v>
+      </c>
       <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
+      <c r="AY22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -2229,16 +2227,16 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -2250,15 +2248,15 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
+      <c r="AB23" t="n">
+        <v>1</v>
+      </c>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
@@ -2280,7 +2278,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2290,15 +2288,21 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2309,13 +2313,17 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
+      <c r="AB24" t="n">
+        <v>1</v>
+      </c>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
+      <c r="AH24" t="n">
+        <v>1</v>
+      </c>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
@@ -2323,11 +2331,15 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
+      <c r="AT24" t="n">
+        <v>1</v>
+      </c>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
@@ -2337,17 +2349,25 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
@@ -2355,50 +2375,84 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1</v>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
+      <c r="AG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AK25" t="n">
+        <v>1</v>
+      </c>
       <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
+      <c r="AR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1</v>
+      </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="inlineStr"/>
-      <c r="AW25" t="inlineStr"/>
+      <c r="AV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
       <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
+      <c r="AY25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -2414,12 +2468,14 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -2439,7 +2495,9 @@
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
+      <c r="AL26" t="n">
+        <v>1</v>
+      </c>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
@@ -2451,82 +2509,110 @@
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
+      <c r="AX26" t="n">
+        <v>1</v>
+      </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
       <c r="X27" t="n">
         <v>1</v>
       </c>
-      <c r="Y27" t="inlineStr"/>
+      <c r="Y27" t="n">
+        <v>1</v>
+      </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
+      <c r="AB27" t="n">
+        <v>1</v>
+      </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
+      <c r="AI27" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
+      <c r="AK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
+      <c r="AR27" t="n">
+        <v>1</v>
+      </c>
       <c r="AS27" t="n">
         <v>1</v>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="inlineStr"/>
+      <c r="AW27" t="n">
+        <v>1</v>
+      </c>
       <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -2543,9 +2629,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -2563,9 +2647,7 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
@@ -2587,79 +2669,51 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1</v>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
-      <c r="X29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1</v>
-      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="n">
         <v>1</v>
       </c>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
+      <c r="AG29" t="n">
+        <v>1</v>
+      </c>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
@@ -2667,38 +2721,24 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="n">
         <v>1</v>
       </c>
-      <c r="AQ29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -2709,19 +2749,19 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -2753,13 +2793,15 @@
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -2770,19 +2812,17 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2825,16 +2865,16 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -2842,29 +2882,29 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="n">
-        <v>1</v>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
-      <c r="X32" t="n">
-        <v>1</v>
-      </c>
+      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
+      <c r="AB32" t="n">
+        <v>1</v>
+      </c>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
+      <c r="AG32" t="n">
+        <v>1</v>
+      </c>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
@@ -2876,17 +2916,13 @@
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr"/>
       <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2894,9 +2930,7 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -2904,9 +2938,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2915,18 +2947,12 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="n">
-        <v>1</v>
-      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="n">
-        <v>1</v>
-      </c>
+      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
@@ -2947,17 +2973,13 @@
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2965,16 +2987,22 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -2983,48 +3011,68 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="n">
-        <v>1</v>
-      </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
       <c r="X34" t="n">
         <v>1</v>
       </c>
-      <c r="Y34" t="inlineStr"/>
+      <c r="Y34" t="n">
+        <v>1</v>
+      </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
+      <c r="AB34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
       <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
+      <c r="AI34" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="n">
+        <v>1</v>
+      </c>
       <c r="AS34" t="n">
         <v>1</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
+      <c r="AV34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>1</v>
+      </c>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="n">
         <v>1</v>
@@ -3033,19 +3081,19 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -3055,28 +3103,28 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="n">
-        <v>1</v>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="n">
-        <v>1</v>
-      </c>
+      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
+      <c r="AB35" t="n">
+        <v>1</v>
+      </c>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1</v>
+      </c>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
@@ -3086,44 +3134,40 @@
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
@@ -3135,13 +3179,17 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>1</v>
+      </c>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
+      <c r="AH36" t="n">
+        <v>1</v>
+      </c>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
@@ -3149,7 +3197,9 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
+      <c r="AP36" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -3163,7 +3213,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3173,16 +3223,18 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -3194,13 +3246,19 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>1</v>
+      </c>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
+      <c r="AG37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1</v>
+      </c>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
@@ -3222,7 +3280,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3232,17 +3290,19 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -3253,15 +3313,17 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
+      <c r="AB38" t="n">
+        <v>1</v>
+      </c>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
       <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
@@ -3269,7 +3331,9 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
+      <c r="AP38" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -3293,17 +3357,19 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -3314,13 +3380,17 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
+      <c r="AB39" t="n">
+        <v>1</v>
+      </c>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
+      <c r="AH39" t="n">
+        <v>1</v>
+      </c>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
@@ -3345,23 +3415,25 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -3373,7 +3445,9 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
+      <c r="AB40" t="n">
+        <v>1</v>
+      </c>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
@@ -3403,61 +3477,103 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
       <c r="P41" t="n">
         <v>1</v>
       </c>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1</v>
+      </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
+      <c r="AB41" t="n">
+        <v>1</v>
+      </c>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
+      <c r="AE41" t="n">
+        <v>1</v>
+      </c>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
+      <c r="AK41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1</v>
+      </c>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
+      <c r="AR41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr"/>
-      <c r="AV41" t="inlineStr"/>
-      <c r="AW41" t="inlineStr"/>
+      <c r="AV41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>1</v>
+      </c>
       <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="inlineStr"/>
+      <c r="AY41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3472,16 +3588,18 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
@@ -3493,11 +3611,15 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
+      <c r="AB42" t="n">
+        <v>1</v>
+      </c>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
+      <c r="AF42" t="n">
+        <v>1</v>
+      </c>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
@@ -3524,122 +3646,132 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
+      <c r="AB43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1</v>
+      </c>
       <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
+      <c r="AE43" t="n">
+        <v>1</v>
+      </c>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
+      <c r="AG43" t="n">
+        <v>1</v>
+      </c>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
+      <c r="AK43" t="n">
+        <v>1</v>
+      </c>
       <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
+      <c r="AM43" t="n">
+        <v>1</v>
+      </c>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
+      <c r="AR43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1</v>
+      </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr"/>
-      <c r="AV43" t="inlineStr"/>
-      <c r="AW43" t="inlineStr"/>
+      <c r="AV43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>1</v>
+      </c>
       <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="n">
-        <v>1</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1</v>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
@@ -3649,54 +3781,44 @@
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
+      <c r="AL44" t="n">
+        <v>1</v>
+      </c>
       <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
-      <c r="AX44" t="inlineStr"/>
-      <c r="AY44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -3714,7 +3836,9 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
+      <c r="AB45" t="n">
+        <v>1</v>
+      </c>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
@@ -3742,7 +3866,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -3759,11 +3883,11 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -3783,7 +3907,9 @@
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="inlineStr"/>
+      <c r="AL46" t="n">
+        <v>1</v>
+      </c>
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
@@ -3803,53 +3929,83 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
-      <c r="T47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="n">
-        <v>1</v>
-      </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1</v>
+      </c>
       <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1</v>
+      </c>
       <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
       <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
+      <c r="AG47" t="n">
+        <v>1</v>
+      </c>
       <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr"/>
+      <c r="AI47" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
+      <c r="AK47" t="n">
+        <v>1</v>
+      </c>
       <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
+      <c r="AM47" t="n">
+        <v>1</v>
+      </c>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
@@ -3862,8 +4018,12 @@
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr"/>
-      <c r="AV47" t="inlineStr"/>
-      <c r="AW47" t="inlineStr"/>
+      <c r="AV47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>1</v>
+      </c>
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="n">
         <v>1</v>
@@ -3872,7 +4032,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -3889,11 +4049,11 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="n">
-        <v>1</v>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3909,13 +4069,13 @@
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
-      <c r="AL48" t="inlineStr"/>
+      <c r="AL48" t="n">
+        <v>1</v>
+      </c>
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
@@ -3933,7 +4093,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -3950,11 +4110,11 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3986,68 +4146,56 @@
       <c r="AU49" t="inlineStr"/>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
-      <c r="AX49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX49" t="inlineStr"/>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
       <c r="R50" t="n">
         <v>1</v>
       </c>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="n">
-        <v>1</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1</v>
-      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="n">
         <v>1</v>
       </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1</v>
-      </c>
+      <c r="X50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
         <v>1</v>
       </c>
@@ -4055,53 +4203,51 @@
         <v>1</v>
       </c>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="n">
         <v>1</v>
       </c>
-      <c r="AH50" t="inlineStr"/>
+      <c r="AH50" t="n">
+        <v>1</v>
+      </c>
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
+      <c r="AK50" t="n">
+        <v>1</v>
+      </c>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="n">
         <v>1</v>
       </c>
       <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
+      <c r="AR50" t="n">
+        <v>1</v>
+      </c>
       <c r="AS50" t="n">
         <v>1</v>
       </c>
-      <c r="AT50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="n">
         <v>1</v>
       </c>
-      <c r="AW50" t="inlineStr"/>
+      <c r="AW50" t="n">
+        <v>1</v>
+      </c>
       <c r="AX50" t="inlineStr"/>
-      <c r="AY50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -4118,11 +4264,11 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -4154,15 +4300,13 @@
       <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
-      <c r="AX51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX51" t="inlineStr"/>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4176,25 +4320,29 @@
       <c r="F52" t="n">
         <v>1</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
       <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
       <c r="R52" t="n">
         <v>1</v>
       </c>
@@ -4204,21 +4352,15 @@
       <c r="T52" t="n">
         <v>1</v>
       </c>
-      <c r="U52" t="n">
-        <v>1</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1</v>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="n">
         <v>1</v>
       </c>
       <c r="X52" t="n">
         <v>1</v>
       </c>
-      <c r="Y52" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
         <v>1</v>
@@ -4226,43 +4368,49 @@
       <c r="AB52" t="n">
         <v>1</v>
       </c>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE52" t="inlineStr"/>
+      <c r="AC52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="n">
+        <v>1</v>
+      </c>
       <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr"/>
+      <c r="AI52" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
-      <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
+      <c r="AK52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1</v>
+      </c>
       <c r="AN52" t="inlineStr"/>
-      <c r="AO52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
+      <c r="AR52" t="n">
+        <v>1</v>
+      </c>
       <c r="AS52" t="n">
         <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
       </c>
-      <c r="AU52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="n">
         <v>1</v>
       </c>
-      <c r="AW52" t="inlineStr"/>
+      <c r="AW52" t="n">
+        <v>1</v>
+      </c>
       <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="n">
         <v>1</v>
@@ -4271,7 +4419,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -4280,83 +4428,77 @@
         <v>1</v>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
         <v>1</v>
       </c>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
       <c r="R53" t="n">
         <v>1</v>
       </c>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="n">
-        <v>1</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1</v>
-      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="n">
         <v>1</v>
       </c>
       <c r="X53" t="n">
         <v>1</v>
       </c>
-      <c r="Y53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="n">
         <v>1</v>
       </c>
       <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="n">
         <v>1</v>
       </c>
       <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="inlineStr"/>
+      <c r="AI53" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
-      <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr"/>
-      <c r="AN53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
-      <c r="AP53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP53" t="inlineStr"/>
       <c r="AQ53" t="inlineStr"/>
       <c r="AR53" t="n">
         <v>1</v>
@@ -4364,9 +4506,7 @@
       <c r="AS53" t="n">
         <v>1</v>
       </c>
-      <c r="AT53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="n">
         <v>1</v>
@@ -4382,153 +4522,91 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1</v>
-      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
         <v>1</v>
       </c>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1</v>
-      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1</v>
-      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
-      <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
       <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS54" t="inlineStr"/>
       <c r="AT54" t="inlineStr"/>
-      <c r="AU54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
       <c r="AX54" t="n">
         <v>1</v>
       </c>
-      <c r="AY54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
         <v>1</v>
@@ -4543,76 +4621,62 @@
       <c r="T55" t="n">
         <v>1</v>
       </c>
-      <c r="U55" t="n">
-        <v>1</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1</v>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="n">
         <v>1</v>
       </c>
       <c r="X55" t="n">
         <v>1</v>
       </c>
-      <c r="Y55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="n">
         <v>1</v>
       </c>
-      <c r="AC55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
-      <c r="AL55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1</v>
+      </c>
       <c r="AM55" t="n">
         <v>1</v>
       </c>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
-      <c r="AP55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="n">
+        <v>1</v>
+      </c>
       <c r="AS55" t="n">
         <v>1</v>
       </c>
-      <c r="AT55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="n">
         <v>1</v>
       </c>
-      <c r="AW55" t="inlineStr"/>
-      <c r="AX55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="n">
         <v>1</v>
       </c>
@@ -4620,56 +4684,46 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
-        <v>1</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1</v>
-      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
         <v>1</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
       <c r="R56" t="n">
         <v>1</v>
       </c>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="n">
         <v>1</v>
       </c>
       <c r="U56" t="n">
         <v>1</v>
       </c>
-      <c r="V56" t="n">
-        <v>1</v>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="n">
         <v>1</v>
       </c>
@@ -4679,27 +4733,31 @@
       <c r="Y56" t="n">
         <v>1</v>
       </c>
-      <c r="Z56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
         <v>1</v>
       </c>
       <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="n">
+        <v>1</v>
+      </c>
       <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
+      <c r="AG56" t="n">
+        <v>1</v>
+      </c>
       <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
+      <c r="AI56" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
-      <c r="AL56" t="inlineStr"/>
+      <c r="AK56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1</v>
+      </c>
       <c r="AM56" t="n">
         <v>1</v>
       </c>
@@ -4709,21 +4767,21 @@
         <v>1</v>
       </c>
       <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="n">
         <v>1</v>
       </c>
-      <c r="AT56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT56" t="inlineStr"/>
       <c r="AU56" t="inlineStr"/>
       <c r="AV56" t="n">
         <v>1</v>
       </c>
-      <c r="AW56" t="inlineStr"/>
-      <c r="AX56" t="inlineStr"/>
+      <c r="AW56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1</v>
+      </c>
       <c r="AY56" t="n">
         <v>1</v>
       </c>
@@ -4731,105 +4789,63 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
-        <v>1</v>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="n">
-        <v>1</v>
-      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
         <v>1</v>
       </c>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1</v>
-      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr"/>
-      <c r="AP57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="inlineStr"/>
-      <c r="AX57" t="inlineStr"/>
-      <c r="AY57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4870,37 +4886,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4909,82 +4925,82 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -4995,11 +5011,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -5014,7 +5030,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -5029,7 +5045,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -5040,41 +5056,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -5085,47 +5101,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5134,58 +5150,58 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5194,127 +5210,127 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -5325,11 +5341,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -5340,11 +5356,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -5355,32 +5371,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5389,13 +5405,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5404,13 +5420,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5419,7 +5435,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -5434,7 +5450,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40">
@@ -5449,22 +5465,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
@@ -5479,7 +5495,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -5490,107 +5506,107 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5599,28 +5615,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5629,13 +5645,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5644,28 +5660,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5674,13 +5690,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5689,22 +5705,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5746,22 +5762,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.162179243516586</v>
+        <v>0.6158622809750631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5770,13 +5786,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5390088600905837</v>
+        <v>0.9658501241410943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5785,28 +5801,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.02991793893395306</v>
+        <v>0.01341577448473376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.966871446372777</v>
+        <v>0.8103833470968879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5815,13 +5831,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0475721382172814</v>
+        <v>0.861924640388315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5830,13 +5846,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0531444526795137</v>
+        <v>0.1437282380399179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5845,22 +5861,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.923150869810913</v>
+        <v>0.8938448056674928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9668704149947995</v>
+        <v>0.009435901263458973</v>
       </c>
     </row>
     <row r="10">
@@ -5871,11 +5887,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7250724244226744</v>
+        <v>0.8666133438298248</v>
       </c>
     </row>
     <row r="11">
@@ -5886,11 +5902,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9644131125450515</v>
+        <v>0.9900459932280644</v>
       </c>
     </row>
     <row r="12">
@@ -5905,7 +5921,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.973646091669639</v>
+        <v>0.9761784472698833</v>
       </c>
     </row>
     <row r="13">
@@ -5920,13 +5936,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6046376514083671</v>
+        <v>0.8202752975655796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5935,22 +5951,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.03543244910526632</v>
+        <v>0.6976796456701772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2245896696188054</v>
+        <v>0.7147357275906794</v>
       </c>
     </row>
     <row r="16">
@@ -5961,62 +5977,62 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.004420691598492266</v>
+        <v>0.5047647419669163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6585157115959672</v>
+        <v>0.4837576028331497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02575208312420693</v>
+        <v>0.02071600869403012</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1800050532965421</v>
+        <v>0.817501381915456</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -6025,13 +6041,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.505710815145001</v>
+        <v>0.03084483556592222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -6040,28 +6056,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1838894707980067</v>
+        <v>0.7105172706701361</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.03209145089212278</v>
+        <v>0.9969483987372491</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -6070,28 +6086,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4824132841898353</v>
+        <v>0.02694274625859441</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3638163919975242</v>
+        <v>0.04979689174146058</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -6100,13 +6116,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.140613515262258</v>
+        <v>0.4701947503120435</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6115,13 +6131,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.07928405955377309</v>
+        <v>0.9552489000184006</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -6130,28 +6146,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5097585433438342</v>
+        <v>0.7289046029859663</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01707646970014104</v>
+        <v>0.0491509708418835</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6160,13 +6176,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8908274474768597</v>
+        <v>0.6157872056047735</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6175,13 +6191,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1585247371356304</v>
+        <v>0.9820955159647358</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6190,7 +6206,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.966068588430559</v>
+        <v>0.007715664677776613</v>
       </c>
     </row>
     <row r="32">
@@ -6201,11 +6217,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6022023217407976</v>
+        <v>0.925328868190245</v>
       </c>
     </row>
     <row r="33">
@@ -6216,11 +6232,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5142610482834677</v>
+        <v>0.5287391084964483</v>
       </c>
     </row>
     <row r="34">
@@ -6235,28 +6251,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.3859206409235956</v>
+        <v>0.7128099059679144</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9916310465394822</v>
+        <v>0.3792966142336922</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6265,13 +6281,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9899824683805618</v>
+        <v>0.5702954944325157</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6280,13 +6296,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9924350871823813</v>
+        <v>0.2752594022438828</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6295,7 +6311,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.998228935793306</v>
+        <v>0.5872692022880764</v>
       </c>
     </row>
     <row r="39">
@@ -6310,7 +6326,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.6506628388360085</v>
+        <v>0.006590822909490185</v>
       </c>
     </row>
     <row r="40">
@@ -6325,13 +6341,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5977817311103746</v>
+        <v>0.9881835610883039</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6340,7 +6356,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5188778706851048</v>
+        <v>0.9674571388623574</v>
       </c>
     </row>
     <row r="42">
@@ -6351,11 +6367,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.04759906897311479</v>
+        <v>0.7863667522077713</v>
       </c>
     </row>
     <row r="43">
@@ -6366,77 +6382,77 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.604496861296123</v>
+        <v>0.9945276936500622</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.6882312441003448</v>
+        <v>0.02876100048193526</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.02056958373187295</v>
+        <v>0.01139497950842457</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.3338803397878568</v>
+        <v>0.9755832824432965</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.7670017375048062</v>
+        <v>0.9974858910187975</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6445,52 +6461,52 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.02586165896668561</v>
+        <v>0.02973663053204806</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.790552074800277</v>
+        <v>0.04761919709579047</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.6855441089796477</v>
+        <v>0.6187323038108722</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.02325299959544943</v>
+        <v>0.1676253576821168</v>
       </c>
     </row>
   </sheetData>
